--- a/medicine/Mort/Cimetière_de_Berlin-Dahlem/Cimetière_de_Berlin-Dahlem.xlsx
+++ b/medicine/Mort/Cimetière_de_Berlin-Dahlem/Cimetière_de_Berlin-Dahlem.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Berlin-Dahlem</t>
+          <t>Cimetière_de_Berlin-Dahlem</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Dahlem (Friedhof Dahlem) est un cimetière berlinois situé à Berlin-Dahlem et inauguré en 1908. Il s'étend sur une superficie de 1,1 hectare. C'est aujourd'hui un lieu protégé du Land de Berlin. Il ouvre sur la Königin-Luise-Straße.
 Il est réuni au cimetière évangélique Sainte-Anne de la paroisse de Dahlem (0,2 ha) fondé au XIIIe siècle et la nouvelle extension de 1908 forme donc un L. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Berlin-Dahlem</t>
+          <t>Cimetière_de_Berlin-Dahlem</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Personnalités inhumées au cimetière principal</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Otto Appel (1867-1952), botaniste et agronome
 Ernst Otto Beckmann (1853-1923), chimiste
@@ -547,7 +561,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Berlin-Dahlem</t>
+          <t>Cimetière_de_Berlin-Dahlem</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -565,7 +579,9 @@
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Sépulture de la famille Leichner en forme de temple grec (Ego sum resurrectio et vita)
@@ -585,7 +601,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Berlin-Dahlem</t>
+          <t>Cimetière_de_Berlin-Dahlem</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -603,7 +619,9 @@
           <t>Personnalités enterrées à l'aître Sainte-Anne</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl Friedrich von Beyme (1765-1838), juriste et ministre prussien
 Rudi Dutschke (1940-1979), militant révolutionnaire marxiste
